--- a/CAD6/CELL_ASSIGNMENTS.xlsx
+++ b/CAD6/CELL_ASSIGNMENTS.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,9 +50,6 @@
     <t>FAx1</t>
   </si>
   <si>
-    <t>EN_IVx1</t>
-  </si>
-  <si>
     <t>MUX_INV2x1</t>
   </si>
   <si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Andrew</t>
+  </si>
+  <si>
+    <t>EN_INVx1</t>
   </si>
 </sst>
 </file>
@@ -138,8 +141,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -417,7 +448,7 @@
   <dimension ref="B4:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -444,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -452,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -463,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -474,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -485,10 +516,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -499,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -510,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -521,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -532,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -543,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -551,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -562,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -573,10 +604,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
